--- a/eduardo/Folha de Pagamento-com-funcao.xlsx
+++ b/eduardo/Folha de Pagamento-com-funcao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\notebook\excel-2021-01\eduardo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NOTEBOOK\excel-2021-01\eduardo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -357,15 +357,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -684,7 +684,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,31 +696,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>998</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>43556</v>
       </c>
     </row>
@@ -772,10 +772,10 @@
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D6">
-        <f>IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" ref="D6:D21" si="0">IF(AND($B6&gt;=1,$B6&lt;=15),VLOOKUP($B6,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
         <v>6</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f>IFERROR(D6*B$3,"")</f>
         <v>5988</v>
       </c>
@@ -789,15 +789,15 @@
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(AND($B7&gt;=1,$B7&lt;=15),VLOOKUP($B7,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" ref="C6:C21" si="1">IF(AND($B7&gt;=1,$B7&lt;=15),VLOOKUP($B7,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D7">
-        <f>IF(AND($B7&gt;=1,$B7&lt;=15),VLOOKUP($B7,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" ref="E7:E21" si="0">IFERROR(D7*B$3,"")</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:E21" si="2">IFERROR(D7*B$3,"")</f>
         <v>5988</v>
       </c>
     </row>
@@ -810,15 +810,15 @@
         <v>3</v>
       </c>
       <c r="C8" t="str">
-        <f>IF(AND($B8&gt;=1,$B8&lt;=15),VLOOKUP($B8,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D8">
-        <f>IF(AND($B8&gt;=1,$B8&lt;=15),VLOOKUP($B8,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
+      <c r="E8" s="7">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -831,15 +831,15 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>IF(AND($B9&gt;=1,$B9&lt;=15),VLOOKUP($B9,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Chefe de Expedição</v>
       </c>
       <c r="D9">
-        <f>IF(AND($B9&gt;=1,$B9&lt;=15),VLOOKUP($B9,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -852,15 +852,15 @@
         <v>5</v>
       </c>
       <c r="C10" t="str">
-        <f>IF(AND($B10&gt;=1,$B10&lt;=15),VLOOKUP($B10,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Contador</v>
       </c>
       <c r="D10">
-        <f>IF(AND($B10&gt;=1,$B10&lt;=15),VLOOKUP($B10,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
         <v>12974</v>
       </c>
     </row>
@@ -873,15 +873,15 @@
         <v>6</v>
       </c>
       <c r="C11" t="str">
-        <f>IF(AND($B11&gt;=1,$B11&lt;=15),VLOOKUP($B11,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Diretor de Divisão</v>
       </c>
       <c r="D11">
-        <f>IF(AND($B11&gt;=1,$B11&lt;=15),VLOOKUP($B11,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
         <v>19960</v>
       </c>
     </row>
@@ -894,15 +894,15 @@
         <v>5</v>
       </c>
       <c r="C12" t="str">
-        <f>IF(AND($B12&gt;=1,$B12&lt;=15),VLOOKUP($B12,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Contador</v>
       </c>
       <c r="D12">
-        <f>IF(AND($B12&gt;=1,$B12&lt;=15),VLOOKUP($B12,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
+      <c r="E12" s="7">
+        <f t="shared" si="2"/>
         <v>12974</v>
       </c>
     </row>
@@ -915,15 +915,15 @@
         <v>6</v>
       </c>
       <c r="C13" t="str">
-        <f>IF(AND($B13&gt;=1,$B13&lt;=15),VLOOKUP($B13,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Diretor de Divisão</v>
       </c>
       <c r="D13">
-        <f>IF(AND($B13&gt;=1,$B13&lt;=15),VLOOKUP($B13,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
+      <c r="E13" s="7">
+        <f t="shared" si="2"/>
         <v>19960</v>
       </c>
     </row>
@@ -936,15 +936,15 @@
         <v>2</v>
       </c>
       <c r="C14" t="str">
-        <f>IF(AND($B14&gt;=1,$B14&lt;=15),VLOOKUP($B14,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D14">
-        <f>IF(AND($B14&gt;=1,$B14&lt;=15),VLOOKUP($B14,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
+      <c r="E14" s="7">
+        <f t="shared" si="2"/>
         <v>5988</v>
       </c>
     </row>
@@ -957,15 +957,15 @@
         <v>3</v>
       </c>
       <c r="C15" t="str">
-        <f>IF(AND($B15&gt;=1,$B15&lt;=15),VLOOKUP($B15,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D15">
-        <f>IF(AND($B15&gt;=1,$B15&lt;=15),VLOOKUP($B15,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
+      <c r="E15" s="7">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -978,15 +978,15 @@
         <v>4</v>
       </c>
       <c r="C16" t="str">
-        <f>IF(AND($B16&gt;=1,$B16&lt;=15),VLOOKUP($B16,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Chefe de Expedição</v>
       </c>
       <c r="D16">
-        <f>IF(AND($B16&gt;=1,$B16&lt;=15),VLOOKUP($B16,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
+      <c r="E16" s="7">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -999,15 +999,15 @@
         <v>5</v>
       </c>
       <c r="C17" t="str">
-        <f>IF(AND($B17&gt;=1,$B17&lt;=15),VLOOKUP($B17,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Contador</v>
       </c>
       <c r="D17">
-        <f>IF(AND($B17&gt;=1,$B17&lt;=15),VLOOKUP($B17,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
+      <c r="E17" s="7">
+        <f t="shared" si="2"/>
         <v>12974</v>
       </c>
     </row>
@@ -1020,15 +1020,15 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f>IF(AND($B18&gt;=1,$B18&lt;=15),VLOOKUP($B18,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Análista de Salários</v>
       </c>
       <c r="D18">
-        <f>IF(AND($B18&gt;=1,$B18&lt;=15),VLOOKUP($B18,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
+      <c r="E18" s="7">
+        <f t="shared" si="2"/>
         <v>9980</v>
       </c>
     </row>
@@ -1041,15 +1041,15 @@
         <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f>IF(AND($B19&gt;=1,$B19&lt;=15),VLOOKUP($B19,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Auxiliar de Contabilidade</v>
       </c>
       <c r="D19">
-        <f>IF(AND($B19&gt;=1,$B19&lt;=15),VLOOKUP($B19,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
+      <c r="E19" s="7">
+        <f t="shared" si="2"/>
         <v>5988</v>
       </c>
     </row>
@@ -1062,15 +1062,15 @@
         <v>3</v>
       </c>
       <c r="C20" t="str">
-        <f>IF(AND($B20&gt;=1,$B20&lt;=15),VLOOKUP($B20,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Chefe de Cobrança</v>
       </c>
       <c r="D20">
-        <f>IF(AND($B20&gt;=1,$B20&lt;=15),VLOOKUP($B20,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
+      <c r="E20" s="7">
+        <f t="shared" si="2"/>
         <v>6986</v>
       </c>
     </row>
@@ -1083,15 +1083,15 @@
         <v>7</v>
       </c>
       <c r="C21" t="str">
-        <f>IF(AND($B21&gt;=1,$B21&lt;=15),VLOOKUP($B21,Tabela14,2,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="1"/>
         <v>Auxiliar de Escritório</v>
       </c>
       <c r="D21">
-        <f>IF(AND($B21&gt;=1,$B21&lt;=15),VLOOKUP($B21,Tabela14,3,FALSE),"CARGO INEXISTENTE")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
+      <c r="E21" s="7">
+        <f t="shared" si="2"/>
         <v>3992</v>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,11 +1137,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
